--- a/data/CloudComparer.xlsx
+++ b/data/CloudComparer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="333">
   <si>
     <t>Virtual Compute</t>
   </si>
@@ -1064,6 +1064,12 @@
   </si>
   <si>
     <t>Service_Ref</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Computing</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Virtual_machine</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,11 +1623,15 @@
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="10" t="s">
+        <v>331</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4712,9 +4722,11 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <webPublishItems count="1">
     <webPublishItem id="27964" divId="CloudComparer_27964" sourceType="range" sourceRef="E1:K102" destinationFile="C:\Users\User\Desktop\CloudComparer.htm"/>
   </webPublishItems>
